--- a/config_11.24/fish3d_config.xlsx
+++ b/config_11.24/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="414">
   <si>
     <t>line|行号</t>
   </si>
@@ -2444,6 +2444,18 @@
       </rPr>
       <t>,</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D088</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_imgf_zp54</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡鱼</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2530,7 +2542,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2546,6 +2558,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2592,7 +2610,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2748,6 +2766,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3028,9 +3064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="U1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X48" sqref="X48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8446,6 +8482,89 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="59" spans="1:36" s="54" customFormat="1">
+      <c r="A59" s="52">
+        <v>58</v>
+      </c>
+      <c r="B59" s="52">
+        <v>58</v>
+      </c>
+      <c r="C59" s="53" t="s">
+        <v>411</v>
+      </c>
+      <c r="D59" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="E59" s="53" t="s">
+        <v>413</v>
+      </c>
+      <c r="F59" s="53" t="s">
+        <v>412</v>
+      </c>
+      <c r="G59" s="53" t="s">
+        <v>412</v>
+      </c>
+      <c r="H59" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="I59" s="53">
+        <v>2.64</v>
+      </c>
+      <c r="J59" s="53">
+        <v>2.38</v>
+      </c>
+      <c r="K59" s="52">
+        <v>1</v>
+      </c>
+      <c r="L59" s="52">
+        <v>30</v>
+      </c>
+      <c r="M59" s="53">
+        <v>1</v>
+      </c>
+      <c r="N59" s="52">
+        <v>0</v>
+      </c>
+      <c r="O59" s="52">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="53">
+        <v>0.64</v>
+      </c>
+      <c r="R59" s="55">
+        <v>0.73</v>
+      </c>
+      <c r="S59" s="55">
+        <v>0.74</v>
+      </c>
+      <c r="T59" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="U59" s="55">
+        <v>1</v>
+      </c>
+      <c r="V59" s="55">
+        <v>0.8</v>
+      </c>
+      <c r="W59" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="Y59" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z59" s="57" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA59" s="57">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="57">
+        <v>1000</v>
+      </c>
+      <c r="AD59" s="57">
+        <v>1.5</v>
+      </c>
+    </row>
     <row r="61" spans="1:36">
       <c r="E61" s="13"/>
     </row>

--- a/config_11.24/fish3d_config.xlsx
+++ b/config_11.24/fish3d_config.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="415">
   <si>
     <t>line|行号</t>
   </si>
@@ -2456,6 +2456,10 @@
   </si>
   <si>
     <t>火鸡鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hjboss</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3064,9 +3068,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A59" sqref="A59"/>
+      <selection pane="topRight" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8493,7 +8497,7 @@
         <v>411</v>
       </c>
       <c r="D59" s="53" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="E59" s="53" t="s">
         <v>413</v>
